--- a/Task_Excel/DefaultFile/Практическое задание для кандидата (разработчик ECM без опыта в Directum RX) (1392753 v5).xlsx
+++ b/Task_Excel/DefaultFile/Практическое задание для кандидата (разработчик ECM без опыта в Directum RX) (1392753 v5).xlsx
@@ -148,7 +148,7 @@
     <x:t>Ивановская область, город Орехово-Зуево, пер. Чехова, 59</x:t>
   </x:si>
   <x:si>
-    <x:t>Снежный Олег Иванович</x:t>
+    <x:t>Снежный Виталий</x:t>
   </x:si>
   <x:si>
     <x:t>Код заявки</x:t>
